--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/58/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/58/FD_Curve.xlsx
@@ -488,10 +488,10 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.40681</v>
+        <v>3.18372</v>
       </c>
       <c r="C5" t="n">
-        <v>3406.81</v>
+        <v>3183.72</v>
       </c>
     </row>
     <row r="6">
@@ -499,1066 +499,1066 @@
         <v>0.12397</v>
       </c>
       <c r="B6" t="n">
-        <v>3.47562</v>
+        <v>3.59276</v>
       </c>
       <c r="C6" t="n">
-        <v>3475.62</v>
+        <v>3592.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.154946</v>
+        <v>0.154978</v>
       </c>
       <c r="B7" t="n">
-        <v>3.5554</v>
+        <v>3.81118</v>
       </c>
       <c r="C7" t="n">
-        <v>3555.4</v>
+        <v>3811.18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.185922</v>
+        <v>0.185954</v>
       </c>
       <c r="B8" t="n">
-        <v>3.60088</v>
+        <v>3.90687</v>
       </c>
       <c r="C8" t="n">
-        <v>3600.88</v>
+        <v>3906.87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216899</v>
+        <v>0.21693</v>
       </c>
       <c r="B9" t="n">
-        <v>3.65369</v>
+        <v>3.93425</v>
       </c>
       <c r="C9" t="n">
-        <v>3653.69</v>
+        <v>3934.25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247875</v>
+        <v>0.247906</v>
       </c>
       <c r="B10" t="n">
-        <v>3.68974</v>
+        <v>3.93319</v>
       </c>
       <c r="C10" t="n">
-        <v>3689.74</v>
+        <v>3933.19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278803</v>
+        <v>0.278835</v>
       </c>
       <c r="B11" t="n">
-        <v>3.72677</v>
+        <v>3.92763</v>
       </c>
       <c r="C11" t="n">
-        <v>3726.77</v>
+        <v>3927.63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309728</v>
+        <v>0.30976</v>
       </c>
       <c r="B12" t="n">
-        <v>3.7557</v>
+        <v>3.92123</v>
       </c>
       <c r="C12" t="n">
-        <v>3755.7</v>
+        <v>3921.23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340653</v>
+        <v>0.340685</v>
       </c>
       <c r="B13" t="n">
-        <v>3.78049</v>
+        <v>3.91404</v>
       </c>
       <c r="C13" t="n">
-        <v>3780.49</v>
+        <v>3914.04</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371578</v>
+        <v>0.37161</v>
       </c>
       <c r="B14" t="n">
-        <v>3.80398</v>
+        <v>3.90687</v>
       </c>
       <c r="C14" t="n">
-        <v>3803.98</v>
+        <v>3906.87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402503</v>
+        <v>0.402535</v>
       </c>
       <c r="B15" t="n">
-        <v>3.82619</v>
+        <v>3.8993</v>
       </c>
       <c r="C15" t="n">
-        <v>3826.19</v>
+        <v>3899.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433428</v>
+        <v>0.43346</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84565</v>
+        <v>3.89159</v>
       </c>
       <c r="C16" t="n">
-        <v>3845.65</v>
+        <v>3891.59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464349</v>
+        <v>0.464385</v>
       </c>
       <c r="B17" t="n">
-        <v>3.86327</v>
+        <v>3.88372</v>
       </c>
       <c r="C17" t="n">
-        <v>3863.27</v>
+        <v>3883.72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495274</v>
+        <v>0.49531</v>
       </c>
       <c r="B18" t="n">
-        <v>3.87963</v>
+        <v>3.87571</v>
       </c>
       <c r="C18" t="n">
-        <v>3879.63</v>
+        <v>3875.71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526199</v>
+        <v>0.52623</v>
       </c>
       <c r="B19" t="n">
-        <v>3.8945</v>
+        <v>3.86753</v>
       </c>
       <c r="C19" t="n">
-        <v>3894.5</v>
+        <v>3867.53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557124</v>
+        <v>0.557155</v>
       </c>
       <c r="B20" t="n">
-        <v>3.90833</v>
+        <v>3.85911</v>
       </c>
       <c r="C20" t="n">
-        <v>3908.33</v>
+        <v>3859.11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588049</v>
+        <v>0.58808</v>
       </c>
       <c r="B21" t="n">
-        <v>3.92115</v>
+        <v>3.85044</v>
       </c>
       <c r="C21" t="n">
-        <v>3921.15</v>
+        <v>3850.44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6190909999999999</v>
+        <v>0.619122</v>
       </c>
       <c r="B22" t="n">
-        <v>3.93308</v>
+        <v>3.84158</v>
       </c>
       <c r="C22" t="n">
-        <v>3933.08</v>
+        <v>3841.58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650268</v>
+        <v>0.650299</v>
       </c>
       <c r="B23" t="n">
-        <v>3.94418</v>
+        <v>3.83256</v>
       </c>
       <c r="C23" t="n">
-        <v>3944.18</v>
+        <v>3832.56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681441</v>
+        <v>0.681472</v>
       </c>
       <c r="B24" t="n">
-        <v>3.95448</v>
+        <v>3.82338</v>
       </c>
       <c r="C24" t="n">
-        <v>3954.48</v>
+        <v>3823.38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7126130000000001</v>
+        <v>0.712645</v>
       </c>
       <c r="B25" t="n">
-        <v>3.96403</v>
+        <v>3.81387</v>
       </c>
       <c r="C25" t="n">
-        <v>3964.03</v>
+        <v>3813.87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.74379</v>
+        <v>0.743822</v>
       </c>
       <c r="B26" t="n">
-        <v>3.97285</v>
+        <v>3.80402</v>
       </c>
       <c r="C26" t="n">
-        <v>3972.85</v>
+        <v>3804.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.774963</v>
+        <v>0.774994</v>
       </c>
       <c r="B27" t="n">
-        <v>3.98105</v>
+        <v>3.79401</v>
       </c>
       <c r="C27" t="n">
-        <v>3981.05</v>
+        <v>3794.01</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806135</v>
+        <v>0.806167</v>
       </c>
       <c r="B28" t="n">
-        <v>3.98861</v>
+        <v>3.78387</v>
       </c>
       <c r="C28" t="n">
-        <v>3988.61</v>
+        <v>3783.87</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8373119999999999</v>
+        <v>0.837344</v>
       </c>
       <c r="B29" t="n">
-        <v>3.99563</v>
+        <v>3.77357</v>
       </c>
       <c r="C29" t="n">
-        <v>3995.63</v>
+        <v>3773.57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868485</v>
+        <v>0.868516</v>
       </c>
       <c r="B30" t="n">
-        <v>4.00208</v>
+        <v>3.76307</v>
       </c>
       <c r="C30" t="n">
-        <v>4002.08</v>
+        <v>3763.07</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899657</v>
+        <v>0.899693</v>
       </c>
       <c r="B31" t="n">
-        <v>4.008010000000001</v>
+        <v>3.75241</v>
       </c>
       <c r="C31" t="n">
-        <v>4008.01</v>
+        <v>3752.41</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9308340000000001</v>
+        <v>0.930866</v>
       </c>
       <c r="B32" t="n">
-        <v>4.01344</v>
+        <v>3.74153</v>
       </c>
       <c r="C32" t="n">
-        <v>4013.44</v>
+        <v>3741.53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620069999999999</v>
+        <v>0.9620379999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>4.01839</v>
+        <v>3.73039</v>
       </c>
       <c r="C33" t="n">
-        <v>4018.39</v>
+        <v>3730.39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993184</v>
+        <v>0.993215</v>
       </c>
       <c r="B34" t="n">
-        <v>4.02288</v>
+        <v>3.71904</v>
       </c>
       <c r="C34" t="n">
-        <v>4022.88</v>
+        <v>3719.04</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02448</v>
+        <v>1.02451</v>
       </c>
       <c r="B35" t="n">
-        <v>4.02694</v>
+        <v>3.70745</v>
       </c>
       <c r="C35" t="n">
-        <v>4026.94</v>
+        <v>3707.45</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05586</v>
+        <v>1.05589</v>
       </c>
       <c r="B36" t="n">
-        <v>4.03057</v>
+        <v>3.69561</v>
       </c>
       <c r="C36" t="n">
-        <v>4030.57</v>
+        <v>3695.61</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08725</v>
+        <v>1.08727</v>
       </c>
       <c r="B37" t="n">
-        <v>4.03379</v>
+        <v>3.6834</v>
       </c>
       <c r="C37" t="n">
-        <v>4033.79</v>
+        <v>3683.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11862</v>
+        <v>1.11865</v>
       </c>
       <c r="B38" t="n">
-        <v>4.03659</v>
+        <v>3.67081</v>
       </c>
       <c r="C38" t="n">
-        <v>4036.59</v>
+        <v>3670.81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15</v>
+        <v>1.15004</v>
       </c>
       <c r="B39" t="n">
-        <v>4.03901</v>
+        <v>3.65785</v>
       </c>
       <c r="C39" t="n">
-        <v>4039.01</v>
+        <v>3657.85</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18139</v>
+        <v>1.18142</v>
       </c>
       <c r="B40" t="n">
-        <v>4.04103</v>
+        <v>3.64455</v>
       </c>
       <c r="C40" t="n">
-        <v>4041.03</v>
+        <v>3644.55</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21277</v>
+        <v>1.21257</v>
       </c>
       <c r="B41" t="n">
-        <v>4.04267</v>
+        <v>3.63097</v>
       </c>
       <c r="C41" t="n">
-        <v>4042.67</v>
+        <v>3630.97</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24415</v>
+        <v>1.24341</v>
       </c>
       <c r="B42" t="n">
-        <v>4.04393</v>
+        <v>3.6171</v>
       </c>
       <c r="C42" t="n">
-        <v>4043.93</v>
+        <v>3617.1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27553</v>
+        <v>1.27461</v>
       </c>
       <c r="B43" t="n">
-        <v>4.0448</v>
+        <v>3.60274</v>
       </c>
       <c r="C43" t="n">
-        <v>4044.8</v>
+        <v>3602.74</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30691</v>
+        <v>1.30538</v>
       </c>
       <c r="B44" t="n">
-        <v>4.0453</v>
+        <v>3.5882</v>
       </c>
       <c r="C44" t="n">
-        <v>4045.3</v>
+        <v>3588.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33829</v>
+        <v>1.33661</v>
       </c>
       <c r="B45" t="n">
-        <v>4.04534</v>
+        <v>3.57302</v>
       </c>
       <c r="C45" t="n">
-        <v>4045.34</v>
+        <v>3573.02</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36967</v>
+        <v>1.3675</v>
       </c>
       <c r="B46" t="n">
-        <v>4.04499</v>
+        <v>3.55761</v>
       </c>
       <c r="C46" t="n">
-        <v>4044.99</v>
+        <v>3557.61</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40105</v>
+        <v>1.39854</v>
       </c>
       <c r="B47" t="n">
-        <v>4.04425</v>
+        <v>3.54172</v>
       </c>
       <c r="C47" t="n">
-        <v>4044.25</v>
+        <v>3541.72</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43243</v>
+        <v>1.42953</v>
       </c>
       <c r="B48" t="n">
-        <v>4.04314</v>
+        <v>3.52537</v>
       </c>
       <c r="C48" t="n">
-        <v>4043.14</v>
+        <v>3525.37</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46381</v>
+        <v>1.46046</v>
       </c>
       <c r="B49" t="n">
-        <v>4.04167</v>
+        <v>3.50862</v>
       </c>
       <c r="C49" t="n">
-        <v>4041.67</v>
+        <v>3508.62</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49519</v>
+        <v>1.49155</v>
       </c>
       <c r="B50" t="n">
-        <v>4.03983</v>
+        <v>3.49123</v>
       </c>
       <c r="C50" t="n">
-        <v>4039.83</v>
+        <v>3491.23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52635</v>
+        <v>1.52242</v>
       </c>
       <c r="B51" t="n">
-        <v>4.03759</v>
+        <v>3.47353</v>
       </c>
       <c r="C51" t="n">
-        <v>4037.59</v>
+        <v>3473.53</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55732</v>
+        <v>1.55359</v>
       </c>
       <c r="B52" t="n">
-        <v>4.03498</v>
+        <v>3.45511</v>
       </c>
       <c r="C52" t="n">
-        <v>4034.98</v>
+        <v>3455.11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58828</v>
+        <v>1.58443</v>
       </c>
       <c r="B53" t="n">
-        <v>4.032010000000001</v>
+        <v>3.43637</v>
       </c>
       <c r="C53" t="n">
-        <v>4032.01</v>
+        <v>3436.37</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61926</v>
+        <v>1.6156</v>
       </c>
       <c r="B54" t="n">
-        <v>4.028630000000001</v>
+        <v>3.41683</v>
       </c>
       <c r="C54" t="n">
-        <v>4028.63</v>
+        <v>3416.83</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.65022</v>
+        <v>1.64635</v>
       </c>
       <c r="B55" t="n">
-        <v>4.02489</v>
+        <v>3.39694</v>
       </c>
       <c r="C55" t="n">
-        <v>4024.89</v>
+        <v>3396.94</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.68119</v>
+        <v>1.67757</v>
       </c>
       <c r="B56" t="n">
-        <v>4.02076</v>
+        <v>3.37622</v>
       </c>
       <c r="C56" t="n">
-        <v>4020.76</v>
+        <v>3376.22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.71216</v>
+        <v>1.70837</v>
       </c>
       <c r="B57" t="n">
-        <v>4.01622</v>
+        <v>3.35519</v>
       </c>
       <c r="C57" t="n">
-        <v>4016.22</v>
+        <v>3355.19</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74312</v>
+        <v>1.73961</v>
       </c>
       <c r="B58" t="n">
-        <v>4.01124</v>
+        <v>3.33326</v>
       </c>
       <c r="C58" t="n">
-        <v>4011.24</v>
+        <v>3333.26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77374</v>
+        <v>1.77032</v>
       </c>
       <c r="B59" t="n">
-        <v>4.00563</v>
+        <v>3.31105</v>
       </c>
       <c r="C59" t="n">
-        <v>4005.63</v>
+        <v>3311.05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80429</v>
+        <v>1.80157</v>
       </c>
       <c r="B60" t="n">
-        <v>3.99954</v>
+        <v>3.28787</v>
       </c>
       <c r="C60" t="n">
-        <v>3999.54</v>
+        <v>3287.87</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83484</v>
+        <v>1.83219</v>
       </c>
       <c r="B61" t="n">
-        <v>3.99307</v>
+        <v>3.26458</v>
       </c>
       <c r="C61" t="n">
-        <v>3993.07</v>
+        <v>3264.58</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.8654</v>
+        <v>1.86358</v>
       </c>
       <c r="B62" t="n">
-        <v>3.98621</v>
+        <v>3.2401</v>
       </c>
       <c r="C62" t="n">
-        <v>3986.21</v>
+        <v>3240.1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89654</v>
+        <v>1.89429</v>
       </c>
       <c r="B63" t="n">
-        <v>3.97875</v>
+        <v>3.21558</v>
       </c>
       <c r="C63" t="n">
-        <v>3978.75</v>
+        <v>3215.58</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92811</v>
+        <v>1.92558</v>
       </c>
       <c r="B64" t="n">
-        <v>3.97072</v>
+        <v>3.18999</v>
       </c>
       <c r="C64" t="n">
-        <v>3970.72</v>
+        <v>3189.99</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95968</v>
+        <v>1.95645</v>
       </c>
       <c r="B65" t="n">
-        <v>3.96212</v>
+        <v>3.16426</v>
       </c>
       <c r="C65" t="n">
-        <v>3962.12</v>
+        <v>3164.26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.99126</v>
+        <v>1.98751</v>
       </c>
       <c r="B66" t="n">
-        <v>3.95299</v>
+        <v>3.13784</v>
       </c>
       <c r="C66" t="n">
-        <v>3952.99</v>
+        <v>3137.84</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02283</v>
+        <v>2.0186</v>
       </c>
       <c r="B67" t="n">
-        <v>3.94327</v>
+        <v>3.11097</v>
       </c>
       <c r="C67" t="n">
-        <v>3943.27</v>
+        <v>3110.97</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.0544</v>
+        <v>2.04936</v>
       </c>
       <c r="B68" t="n">
-        <v>3.93287</v>
+        <v>3.08422</v>
       </c>
       <c r="C68" t="n">
-        <v>3932.87</v>
+        <v>3084.22</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08597</v>
+        <v>2.08065</v>
       </c>
       <c r="B69" t="n">
-        <v>3.92168</v>
+        <v>3.05646</v>
       </c>
       <c r="C69" t="n">
-        <v>3921.68</v>
+        <v>3056.46</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11755</v>
+        <v>2.11122</v>
       </c>
       <c r="B70" t="n">
-        <v>3.90971</v>
+        <v>3.02901</v>
       </c>
       <c r="C70" t="n">
-        <v>3909.71</v>
+        <v>3029.01</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14912</v>
+        <v>2.14253</v>
       </c>
       <c r="B71" t="n">
-        <v>3.89704</v>
+        <v>3.00069</v>
       </c>
       <c r="C71" t="n">
-        <v>3897.04</v>
+        <v>3000.69</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.1807</v>
+        <v>2.17318</v>
       </c>
       <c r="B72" t="n">
-        <v>3.88372</v>
+        <v>2.97256</v>
       </c>
       <c r="C72" t="n">
-        <v>3883.72</v>
+        <v>2972.56</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.21227</v>
+        <v>2.20429</v>
       </c>
       <c r="B73" t="n">
-        <v>3.86974</v>
+        <v>2.94382</v>
       </c>
       <c r="C73" t="n">
-        <v>3869.74</v>
+        <v>2943.82</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.24384</v>
+        <v>2.23555</v>
       </c>
       <c r="B74" t="n">
-        <v>3.85494</v>
+        <v>2.91465</v>
       </c>
       <c r="C74" t="n">
-        <v>3854.94</v>
+        <v>2914.65</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.27542</v>
+        <v>2.26595</v>
       </c>
       <c r="B75" t="n">
-        <v>3.8394</v>
+        <v>2.88594</v>
       </c>
       <c r="C75" t="n">
-        <v>3839.4</v>
+        <v>2885.94</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.30699</v>
+        <v>2.29765</v>
       </c>
       <c r="B76" t="n">
-        <v>3.82309</v>
+        <v>2.85641</v>
       </c>
       <c r="C76" t="n">
-        <v>3823.09</v>
+        <v>2856.41</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.33816</v>
+        <v>2.32843</v>
       </c>
       <c r="B77" t="n">
-        <v>3.80596</v>
+        <v>2.82657</v>
       </c>
       <c r="C77" t="n">
-        <v>3805.96</v>
+        <v>2826.57</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36888</v>
+        <v>2.35915</v>
       </c>
       <c r="B78" t="n">
-        <v>3.78808</v>
+        <v>2.79731</v>
       </c>
       <c r="C78" t="n">
-        <v>3788.08</v>
+        <v>2797.31</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.40012</v>
+        <v>2.39031</v>
       </c>
       <c r="B79" t="n">
-        <v>3.76888</v>
+        <v>2.76789</v>
       </c>
       <c r="C79" t="n">
-        <v>3768.88</v>
+        <v>2767.89</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.43101</v>
+        <v>2.42139</v>
       </c>
       <c r="B80" t="n">
-        <v>3.74888</v>
+        <v>2.73765</v>
       </c>
       <c r="C80" t="n">
-        <v>3748.88</v>
+        <v>2737.65</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.46224</v>
+        <v>2.45248</v>
       </c>
       <c r="B81" t="n">
-        <v>3.72749</v>
+        <v>2.70792</v>
       </c>
       <c r="C81" t="n">
-        <v>3727.49</v>
+        <v>2707.92</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.49331</v>
+        <v>2.48303</v>
       </c>
       <c r="B82" t="n">
-        <v>3.7053</v>
+        <v>2.6789</v>
       </c>
       <c r="C82" t="n">
-        <v>3705.3</v>
+        <v>2678.9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.52348</v>
+        <v>2.51229</v>
       </c>
       <c r="B83" t="n">
-        <v>3.68245</v>
+        <v>2.65054</v>
       </c>
       <c r="C83" t="n">
-        <v>3682.45</v>
+        <v>2650.54</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.55488</v>
+        <v>2.54273</v>
       </c>
       <c r="B84" t="n">
-        <v>3.65762</v>
+        <v>2.62096</v>
       </c>
       <c r="C84" t="n">
-        <v>3657.62</v>
+        <v>2620.96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.58639</v>
+        <v>2.57473</v>
       </c>
       <c r="B85" t="n">
-        <v>3.63157</v>
+        <v>2.58939</v>
       </c>
       <c r="C85" t="n">
-        <v>3631.57</v>
+        <v>2589.39</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.61706</v>
+        <v>2.60673</v>
       </c>
       <c r="B86" t="n">
-        <v>3.60479</v>
+        <v>2.55833</v>
       </c>
       <c r="C86" t="n">
-        <v>3604.79</v>
+        <v>2558.33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.64723</v>
+        <v>2.63873</v>
       </c>
       <c r="B87" t="n">
-        <v>3.57735</v>
+        <v>2.52751</v>
       </c>
       <c r="C87" t="n">
-        <v>3577.35</v>
+        <v>2527.51</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67922</v>
+        <v>2.6688</v>
       </c>
       <c r="B88" t="n">
-        <v>3.54699</v>
+        <v>2.49785</v>
       </c>
       <c r="C88" t="n">
-        <v>3546.99</v>
+        <v>2497.85</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.71026</v>
+        <v>2.69867</v>
       </c>
       <c r="B89" t="n">
-        <v>3.51603</v>
+        <v>2.46856</v>
       </c>
       <c r="C89" t="n">
-        <v>3516.03</v>
+        <v>2468.56</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.74079</v>
+        <v>2.72854</v>
       </c>
       <c r="B90" t="n">
-        <v>3.48447</v>
+        <v>2.43958</v>
       </c>
       <c r="C90" t="n">
-        <v>3484.47</v>
+        <v>2439.58</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.77154</v>
+        <v>2.7584</v>
       </c>
       <c r="B91" t="n">
-        <v>3.45146</v>
+        <v>2.41175</v>
       </c>
       <c r="C91" t="n">
-        <v>3451.46</v>
+        <v>2411.75</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.80321</v>
+        <v>2.78827</v>
       </c>
       <c r="B92" t="n">
-        <v>3.41602</v>
+        <v>2.38409</v>
       </c>
       <c r="C92" t="n">
-        <v>3416.02</v>
+        <v>2384.09</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.8344</v>
+        <v>2.81728</v>
       </c>
       <c r="B93" t="n">
-        <v>3.38027</v>
+        <v>2.35683</v>
       </c>
       <c r="C93" t="n">
-        <v>3380.27</v>
+        <v>2356.83</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.86466</v>
+        <v>2.8482</v>
       </c>
       <c r="B94" t="n">
-        <v>3.34427</v>
+        <v>2.3267</v>
       </c>
       <c r="C94" t="n">
-        <v>3344.27</v>
+        <v>2326.7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.89542</v>
+        <v>2.88148</v>
       </c>
       <c r="B95" t="n">
-        <v>3.30683</v>
+        <v>2.29457</v>
       </c>
       <c r="C95" t="n">
-        <v>3306.83</v>
+        <v>2294.57</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92742</v>
+        <v>2.91476</v>
       </c>
       <c r="B96" t="n">
-        <v>3.26715</v>
+        <v>2.2641</v>
       </c>
       <c r="C96" t="n">
-        <v>3267.15</v>
+        <v>2264.1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95836</v>
+        <v>2.94785</v>
       </c>
       <c r="B97" t="n">
-        <v>3.22748</v>
+        <v>2.23418</v>
       </c>
       <c r="C97" t="n">
-        <v>3227.48</v>
+        <v>2234.18</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98902</v>
+        <v>2.97857</v>
       </c>
       <c r="B98" t="n">
-        <v>3.18799</v>
+        <v>2.20449</v>
       </c>
       <c r="C98" t="n">
-        <v>3187.99</v>
+        <v>2204.49</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.0188</v>
+        <v>3.00929</v>
       </c>
       <c r="B99" t="n">
-        <v>3.14828</v>
+        <v>2.17524</v>
       </c>
       <c r="C99" t="n">
-        <v>3148.28</v>
+        <v>2175.24</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.05118</v>
+        <v>3.04001</v>
       </c>
       <c r="B100" t="n">
-        <v>3.10502</v>
+        <v>2.14687</v>
       </c>
       <c r="C100" t="n">
-        <v>3105.02</v>
+        <v>2146.87</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.08247</v>
+        <v>3.07073</v>
       </c>
       <c r="B101" t="n">
-        <v>3.06235</v>
+        <v>2.11907</v>
       </c>
       <c r="C101" t="n">
-        <v>3062.35</v>
+        <v>2119.07</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.11284</v>
+        <v>3.10145</v>
       </c>
       <c r="B102" t="n">
-        <v>3.02065</v>
+        <v>2.09205</v>
       </c>
       <c r="C102" t="n">
-        <v>3020.65</v>
+        <v>2092.05</v>
       </c>
     </row>
   </sheetData>
